--- a/Data Engineering Study Guide - Outline (Make A Copy _) And Go From There).xlsx
+++ b/Data Engineering Study Guide - Outline (Make A Copy _) And Go From There).xlsx
@@ -615,12 +615,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="68.43"/>
-    <col customWidth="1" min="2" max="2" width="32.57"/>
-    <col customWidth="1" min="3" max="3" width="34.43"/>
-    <col customWidth="1" min="4" max="4" width="22.0"/>
+    <col customWidth="1" min="1" max="1" width="59.88"/>
+    <col customWidth="1" min="2" max="2" width="28.5"/>
+    <col customWidth="1" min="3" max="3" width="30.13"/>
+    <col customWidth="1" min="4" max="4" width="19.25"/>
   </cols>
   <sheetData>
     <row r="1">
